--- a/excel/command/changeHostName.xlsx
+++ b/excel/command/changeHostName.xlsx
@@ -12,10 +12,10 @@
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540"/>
   </bookViews>
   <sheets>
-    <sheet name="pngTest" sheetId="1" r:id="rId1"/>
+    <sheet name="hostName" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pngTest!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">hostName!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>子脚本输出</t>
     <rPh sb="0" eb="1">
@@ -260,6 +260,28 @@
   </si>
   <si>
     <t>launchctl load /Library/LaunchAgents/com.symless.synergy.synergy-service.plist</t>
+  </si>
+  <si>
+    <t>忽略执行错误</t>
+    <rPh sb="0" eb="90">
+      <t>ming'ling</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ignoreError</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>sudo killall synergy-config</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sudo killall synergy-server</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4055,6 +4077,33 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="1133" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="1133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4066,33 +4115,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -5630,7 +5652,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -5674,7 +5696,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -5696,9 +5718,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.75" defaultRowHeight="25" customHeight="1"/>
   <cols>
@@ -5751,11 +5775,11 @@
       <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="34" t="str">
+      <c r="C4" s="27" t="str">
         <f ca="1">REPLACE(CELL("filename"),FIND("[",CELL("filename"))-1,99,)</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/command</v>
       </c>
-      <c r="D4" s="35"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="3"/>
       <c r="F4" s="1" t="s">
         <v>23</v>
@@ -5765,11 +5789,11 @@
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="32" t="str">
+      <c r="C5" s="26" t="str">
         <f ca="1">C4&amp;"/../../pythonCode/base/ExcelWorkFlow.py"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/command/../../pythonCode/base/ExcelWorkFlow.py</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="3"/>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -5779,88 +5803,88 @@
       <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="32" t="str">
+      <c r="C6" s="26" t="str">
         <f ca="1">C4&amp;"/../../test"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/command/../../test</v>
       </c>
-      <c r="D6" s="36"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="2:11" ht="15">
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="32" t="str">
+      <c r="C7" s="26" t="str">
         <f ca="1">C4&amp;"/../../temp"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/command/../../temp</v>
       </c>
-      <c r="D7" s="33"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="2:11" ht="15">
       <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="32" t="str">
+      <c r="C8" s="26" t="str">
         <f ca="1">C4&amp;"/../../pythonCode/ClientTools"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/command/../../pythonCode/ClientTools</v>
       </c>
-      <c r="D8" s="33"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:11" ht="15">
       <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="32" t="str">
+      <c r="C9" s="26" t="str">
         <f ca="1">C4&amp;"/../../pythonCode/ServerTools"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/command/../../pythonCode/ServerTools</v>
       </c>
-      <c r="D9" s="33"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:11" ht="15">
       <c r="B10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="32" t="str">
+      <c r="C10" s="26" t="str">
         <f ca="1">C4&amp;"/../../pythonCode/CommonTools"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/command/../../pythonCode/CommonTools</v>
       </c>
-      <c r="D10" s="33"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:11" ht="15">
       <c r="B11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="30" t="str">
+      <c r="C11" s="31" t="str">
         <f ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1, SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1)</f>
         <v>changeHostName.xlsx</v>
       </c>
-      <c r="D11" s="31"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="2:11" ht="15">
       <c r="B12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="30" t="str">
+      <c r="C12" s="31" t="str">
         <f ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1, SEARCH(".xlsx",CELL("filename"))-SEARCH("[",CELL("filename"))-1)</f>
         <v>changeHostName</v>
       </c>
-      <c r="D12" s="31"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="2:11" ht="15">
       <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="34" t="str">
+      <c r="C13" s="27" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))</f>
-        <v>pngTest</v>
+        <v>hostName</v>
       </c>
-      <c r="D13" s="35"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:11" ht="15">
@@ -5878,10 +5902,10 @@
       <c r="B15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="38"/>
+      <c r="D15" s="34"/>
       <c r="E15" s="3"/>
       <c r="F15" s="1" t="s">
         <v>22</v>
@@ -5891,10 +5915,10 @@
       <c r="B16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="38"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="15">
@@ -5928,10 +5952,10 @@
       <c r="B20" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="27"/>
+      <c r="D20" s="36"/>
       <c r="E20" s="18"/>
       <c r="F20" s="19"/>
     </row>
@@ -5942,11 +5966,11 @@
       <c r="B21" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="28" t="str">
+      <c r="C21" s="37" t="str">
         <f ca="1">C10&amp;"/Commands/commandList.py"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/command/../../pythonCode/CommonTools/Commands/commandList.py</v>
       </c>
-      <c r="D21" s="29"/>
+      <c r="D21" s="38"/>
       <c r="E21" s="18"/>
       <c r="F21" s="19"/>
     </row>
@@ -5992,36 +6016,60 @@
     </row>
     <row r="27" spans="1:7" ht="25" customHeight="1" thickBot="1">
       <c r="D27" s="25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="25" customHeight="1" thickBot="1">
+      <c r="D28" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="25" customHeight="1" thickBot="1">
+      <c r="D29" s="25" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="25" customHeight="1" thickBot="1">
+      <c r="B30" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>J2:J4</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A21">
       <formula1>J4:J5</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D30">
+      <formula1>K2:K3</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777779102325439" footer="0.27777779102325439"/>
   <pageSetup paperSize="0" scale="72" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967292" verticalDpi="4294967292"/>
